--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/target-diseases-uv-ips.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/target-diseases-uv-ips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2583442-08E1-AE45-8B7B-8895B8A81672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C644AA1-C23D-9D4E-AE0C-D44DF30FD706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="2900" windowWidth="26840" windowHeight="15940" xr2:uid="{689E09B4-8B12-C846-88D5-52D81ADD4DD0}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/target-diseases-uv-ips.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/target-diseases-uv-ips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C644AA1-C23D-9D4E-AE0C-D44DF30FD706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D44F3B-3A33-9D4F-A135-E4CFFD8D6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2900" windowWidth="26840" windowHeight="15940" xr2:uid="{689E09B4-8B12-C846-88D5-52D81ADD4DD0}"/>
+    <workbookView xWindow="2460" yWindow="2720" windowWidth="26840" windowHeight="15940" xr2:uid="{689E09B4-8B12-C846-88D5-52D81ADD4DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>  4834000</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t xml:space="preserve">achar a coluna name (1) </t>
+  </si>
+  <si>
+    <t>Influenza tipo B</t>
+  </si>
+  <si>
+    <t>Infelção pelo Adenovirus Humano</t>
+  </si>
+  <si>
+    <t>Caxumba</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>Infecção pelo  virus do papiloma humano</t>
   </si>
 </sst>
 </file>
@@ -557,7 +572,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,6 +631,9 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -624,6 +642,9 @@
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -632,6 +653,9 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -648,6 +672,9 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -697,7 +724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -705,7 +732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -713,15 +740,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -729,7 +759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -737,7 +767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -745,7 +775,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
